--- a/medicine/Enfance/Florence_Hinckel/Florence_Hinckel.xlsx
+++ b/medicine/Enfance/Florence_Hinckel/Florence_Hinckel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Florence Hinckel, née le 13 décembre 1973, est une romancière française. Elle écrit principalement des romans pour enfants et adolescents.
 </t>
@@ -511,15 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Florence Hinckel naît le 13 décembre 1973[1].
-Après une licence de programmation analytique, elle devient professeure des écoles. Elle exerce ce métier à Marseille, en Guyane et en Guadeloupe, puis se consacre entièrement à l'écriture[1].
-Mariée et mère de deux enfants, elle vit dans le sud de la France[2].
-Production littéraire
-Son œuvre s'adresse aux enfants comme aux plus grands.
-Elle écrit des romans humoristiques (La famille Papillon, Le Chat Pitre[3]), intimistes (Nos éclats de miroir[4], L'été où je suis né[5]), ou engagés (L'énigme Edna[6], Les copains, le soleil et Nabila, Renversante[7]). Dans Le Grand Saut, elle poursuit sa réflexion sur l'inégalité des chances amorcée dans sa carrière d'enseignante, déjà racontée dans Quatre filles et quatre garçons, et ce toujours sous le prisme de l'amitié[8],[9].
-En parallèle, elle exploite sa formation initiale pour affiner dans ses ouvrages une réflexion critique sur l'Intelligence artificielle[10] ou les réseaux sociaux[11],[12],[13], ainsi que sur le transhumanisme[14]. Cette critique d'une société déshumanisante peut être aussi faite par le biais d'un monde soudain privé de technologie[15].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Florence Hinckel naît le 13 décembre 1973.
+Après une licence de programmation analytique, elle devient professeure des écoles. Elle exerce ce métier à Marseille, en Guyane et en Guadeloupe, puis se consacre entièrement à l'écriture.
+Mariée et mère de deux enfants, elle vit dans le sud de la France.
 </t>
         </is>
       </c>
@@ -545,26 +555,149 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Production littéraire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son œuvre s'adresse aux enfants comme aux plus grands.
+Elle écrit des romans humoristiques (La famille Papillon, Le Chat Pitre), intimistes (Nos éclats de miroir, L'été où je suis né), ou engagés (L'énigme Edna, Les copains, le soleil et Nabila, Renversante). Dans Le Grand Saut, elle poursuit sa réflexion sur l'inégalité des chances amorcée dans sa carrière d'enseignante, déjà racontée dans Quatre filles et quatre garçons, et ce toujours sous le prisme de l'amitié,.
+En parallèle, elle exploite sa formation initiale pour affiner dans ses ouvrages une réflexion critique sur l'Intelligence artificielle ou les réseaux sociaux ainsi que sur le transhumanisme. Cette critique d'une société déshumanisante peut être aussi faite par le biais d'un monde soudain privé de technologie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Florence_Hinckel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Hinckel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Romans contemporains
-Littérature générale
-Toutes des filles en jaune, Paris, Fayard, 2023, 306 p. (EAN 9782213725482, présentation en ligne)
-Pour adolescents et jeunes adultes
-Renversante (y'a encore du boulot), Paris, L'école des loisirs, coll. « Medium », 2022, 160 p. (ISBN 9782211319706, présentation en ligne)
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans contemporains</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Littérature générale</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Toutes des filles en jaune, Paris, Fayard, 2023, 306 p. (EAN 9782213725482, présentation en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Florence_Hinckel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Hinckel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans contemporains</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pour adolescents et jeunes adultes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Renversante (y'a encore du boulot), Paris, L'école des loisirs, coll. « Medium », 2022, 160 p. (ISBN 9782211319706, présentation en ligne)
 L'énigme Edna, Paris, Nathan, 2021, 336 p. (ISBN 978-2-092-59155-0, présentation en ligne)
 Comme un homme, Paris, Nathan, coll. « Court Toujours », 2020, 64 p. (ISBN 978-2092592786, présentation en ligne)
 Nos éclats de miroir, Paris, Nathan, 2019, 176 p. (ISBN 978-2-09-258804-8, présentation en ligne)
 Quatre filles et Quatre garçons, Vincennes, Talents hauts, 2014, 576 p. (ISBN 978-2-36266-109-9, présentation en ligne)
-Hors de moi, Vincennes, Talents hauts, coll. « Ego », 2014, 224 p. (ISBN 978-2-36266-111-2, présentation en ligne) (en lien avec L'été où je suis né[16])
+Hors de moi, Vincennes, Talents hauts, coll. « Ego », 2014, 224 p. (ISBN 978-2-36266-111-2, présentation en ligne) (en lien avec L'été où je suis né)
 L'été où je suis né, Paris, Gallimard Jeunesse, coll. « Scripto », 2011, 96 p. (ISBN 978-2-07-064209-0, présentation en ligne)
-La Fille qui dort, Montréal (Québec)/Paris, Les 400 coups, 2007, 144 p. (ISBN 978-2-89540-345-6, présentation en ligne)
-Pour enfants
-Le chat Pitre : 5 histoires à chavourer, Paris, Nathan, 2022, 271 p. (ISBN 9782092496107, présentation en ligne)
-Renversante, Paris, L'école des loisirs, coll. « Neuf », 2019, 104 p. (ISBN 978-2-211-23938-7, présentation en ligne)[17]
+La Fille qui dort, Montréal (Québec)/Paris, Les 400 coups, 2007, 144 p. (ISBN 978-2-89540-345-6, présentation en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Florence_Hinckel</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Hinckel</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans contemporains</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pour enfants</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le chat Pitre : 5 histoires à chavourer, Paris, Nathan, 2022, 271 p. (ISBN 9782092496107, présentation en ligne)
+Renversante, Paris, L'école des loisirs, coll. « Neuf », 2019, 104 p. (ISBN 978-2-211-23938-7, présentation en ligne)
 Confidences entre filles, Paris, Rageot, 2017, 160 p. (ISBN 978-2-7002-5542-3, présentation en ligne)
 Greta l'ogresse, Paris, Belin, 2017, 64 p. (ISBN 978-2-410-00565-3, présentation en ligne)
 Ma mère est maire, Saint-Mandé, Talents Hauts, 2016, 48 p. (ISBN 978-2-36266-173-0, présentation en ligne)
@@ -572,108 +705,369 @@
 Super-Louis et l’île aux quarante crânes, Paris, Sarbacane, coll. « Pepix », 2014, 144 p. (ISBN 978-2-84865-712-7, présentation en ligne)
 Vanilles et Chocolats, Paris, Oskar, 2013, 160 p. (ISBN 979-10-214-0089-4, présentation en ligne)
 Les Copains, le soleil et Nabila, Paris, Gallimard Jeunesse, coll. « Folio Junior », 2009, 112 p. (ISBN 978-2-07-061487-5, présentation en ligne)
-Le Maillot de bain, Saint-Mandé, Talents hauts, 2009, 96 p. (ISBN 978-2-916238-39-5, présentation en ligne)
-Romans d'anticipation
-L'aube est bleue sur Mars, Paris, Nathan, 2022, 503 p. (EAN 9782092494363, présentation en ligne)
-Ce qui fait battre nos coeurs, Paris, Syros, 2019, 445 p. (ISBN 978-2-7485-2608-0, présentation en ligne)[18],[19]
+Le Maillot de bain, Saint-Mandé, Talents hauts, 2009, 96 p. (ISBN 978-2-916238-39-5, présentation en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Florence_Hinckel</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Hinckel</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans d'anticipation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'aube est bleue sur Mars, Paris, Nathan, 2022, 503 p. (EAN 9782092494363, présentation en ligne)
+Ce qui fait battre nos coeurs, Paris, Syros, 2019, 445 p. (ISBN 978-2-7485-2608-0, présentation en ligne),
 Traces, Paris, Syros, 2016, 128 p. (ISBN 978-2-7485-2124-5, présentation en ligne)
 #Bleue, Paris, Syros, 2015, 272 p. (ISBN 978-2-7485-1686-9, présentation en ligne)
 Mémoire en mi, Paris, Syros, 2013, 48 p. (ISBN 978-2-7485-1384-4, présentation en ligne)
-Théa pour l'éternité, Paris, Syros, 2012, 224 p. (ISBN 978-2-7485-1223-6, présentation en ligne)[20],[21]
-Séries
-Le Grand Saut
-Le Grand Saut 3, Paris, Nathan, 2018, 418 p. (ISBN 978-2-09-258009-7, présentation en ligne)
+Théa pour l'éternité, Paris, Syros, 2012, 224 p. (ISBN 978-2-7485-1223-6, présentation en ligne),</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Florence_Hinckel</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Hinckel</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Le Grand Saut</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le Grand Saut 3, Paris, Nathan, 2018, 418 p. (ISBN 978-2-09-258009-7, présentation en ligne)
 Le Grand Saut 2, Paris, Nathan, 2017, 396 p. (ISBN 978-2-09-257380-8, présentation en ligne)
-Le Grand Saut 1, Paris, Nathan, 2017, 374 p. (ISBN 978-2-09-256639-8, présentation en ligne)
-U4
-Yannis, Paris, Nathan - Syros, 2015, 440 p. (ISBN 978-2-09-255615-3, présentation en ligne)[22],[23],[24],[25],[26],[27],[28]
-Ouvrage cosigné par Florence Hinckel, Vincent Villeminot, Carole Trébor,Yves Grevet, Contagion, Paris, Nathan - Syros, 2016, 449 p. (ISBN 978-2-09-256718-0, présentation en ligne)
-Le Chat Pitre
-Superchat Pitre, Paris, Nathan, 2016, 160 p. (ISBN 978-2-09-256457-8, présentation en ligne)
+Le Grand Saut 1, Paris, Nathan, 2017, 374 p. (ISBN 978-2-09-256639-8, présentation en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Florence_Hinckel</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Hinckel</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Yannis, Paris, Nathan - Syros, 2015, 440 p. (ISBN 978-2-09-255615-3, présentation en ligne)
+Ouvrage cosigné par Florence Hinckel, Vincent Villeminot, Carole Trébor,Yves Grevet, Contagion, Paris, Nathan - Syros, 2016, 449 p. (ISBN 978-2-09-256718-0, présentation en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Florence_Hinckel</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Hinckel</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Le Chat Pitre</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Superchat Pitre, Paris, Nathan, 2016, 160 p. (ISBN 978-2-09-256457-8, présentation en ligne)
 Le chastronaute, Paris, Nathan, 2015, 80 p. (ISBN 978-2-09-255668-9, présentation en ligne)
 Chat va faire mal, Paris, Nathan, 2014, 96 p. (ISBN 978-2-09-255197-4, présentation en ligne)
-Le Chat beauté, Paris, Nathan, 2013, 80 p. (ISBN 978-2-09-254305-4, présentation en ligne)[29]
-Le Chat Pitre, Paris, Nathan, 2011, 80 p. (ISBN 978-2-09-252856-3, présentation en ligne)
-Les faits et gestes de la famille Papillon
-Les succès de Domi, tome 3 des Faits et Gestes de la famille Papillon, Paris/Bruxelles, Casterman, 2020, 288 p. (ISBN 978-2-203-18110-6, présentation en ligne)
+Le Chat beauté, Paris, Nathan, 2013, 80 p. (ISBN 978-2-09-254305-4, présentation en ligne)
+Le Chat Pitre, Paris, Nathan, 2011, 80 p. (ISBN 978-2-09-252856-3, présentation en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Florence_Hinckel</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Hinckel</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Les faits et gestes de la famille Papillon</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Les succès de Domi, tome 3 des Faits et Gestes de la famille Papillon, Paris/Bruxelles, Casterman, 2020, 288 p. (ISBN 978-2-203-18110-6, présentation en ligne)
 Les prouesses de mamie Rose, tome 2 des Faits et Gestes de la famille Papillon, Paris/Bruxelles, Casterman, 2019, 288 p. (ISBN 978-2-203-18110-6, présentation en ligne)
-Les exploits de grand-papy Robert, tome 1 des Faits et Gestes de la famille Papillon, Paris/Bruxelles, Casterman, 2019, 288 p. (ISBN 978-2-203-18096-3, présentation en ligne)[30]
-Mona
-Hyper-connectée (mais seule au monde), Paris, Rageot, 2018, 208 p. (ISBN 978-2-7002-5911-7, présentation en ligne)
+Les exploits de grand-papy Robert, tome 1 des Faits et Gestes de la famille Papillon, Paris/Bruxelles, Casterman, 2019, 288 p. (ISBN 978-2-203-18096-3, présentation en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Florence_Hinckel</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Hinckel</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Mona</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Hyper-connectée (mais seule au monde), Paris, Rageot, 2018, 208 p. (ISBN 978-2-7002-5911-7, présentation en ligne)
 Rendez-vous @ Londres, Paris, Rageot, 2016, 224 p. (ISBN 978-2-7002-5097-8, présentation en ligne)
 Populaire ?, Paris, Rageot, 2016, 250 p. (ISBN 978-2-7002-5304-7, présentation en ligne)
-Secrets.com, Paris, Rageot, 2016, 192 p. (ISBN 978-2-7002-5160-9, présentation en ligne)
-Parutions en presse
-Shéhérazade et moi, Je Bouquine, Bayard Presse, 2022
+Secrets.com, Paris, Rageot, 2016, 192 p. (ISBN 978-2-7002-5160-9, présentation en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Florence_Hinckel</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Hinckel</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Parutions en presse</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Shéhérazade et moi, Je Bouquine, Bayard Presse, 2022
 L'été où je suis né, Je Bouquine, Bayard Presse, 2010
 Mon voyage sur Terre, Dlire, Bayard Presse, 2012</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Florence_Hinckel</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Florence_Hinckel</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Florence_Hinckel</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Hinckel</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La série U4 a été adaptée en Bande Dessinée par les scénaristes Denis Lapière et Pierre-Paul Renders, et le dessinateur Adrian Huelva : 5 tomes parus en 2021/2022 aux éditions Dupuis[31]
-Renversante a été adaptée sous forme de pièce de théâtre par la metteuse en scène Léna Bréban. Le spectacle tourne dans les écoles, collèges et salles de théâtre depuis 2021[32],[33]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Florence_Hinckel</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Florence_Hinckel</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>La série U4 a été adaptée en Bande Dessinée par les scénaristes Denis Lapière et Pierre-Paul Renders, et le dessinateur Adrian Huelva : 5 tomes parus en 2021/2022 aux éditions Dupuis
+Renversante a été adaptée sous forme de pièce de théâtre par la metteuse en scène Léna Bréban. Le spectacle tourne dans les écoles, collèges et salles de théâtre depuis 2021,</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Florence_Hinckel</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Hinckel</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2024 : prix RTS littérature ados pour L'aube est bleue sur Mars[34]
-2021 : prix Littéraire des lycéens professionnels du Haut-Rhin[35] pour Ce qui fait battre nos coeurs
-2021 : 21e prix Action Enfance[36] 2019-2020, catégorie romans, pour Renversante
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2024 : prix RTS littérature ados pour L'aube est bleue sur Mars
+2021 : prix Littéraire des lycéens professionnels du Haut-Rhin pour Ce qui fait battre nos coeurs
+2021 : 21e prix Action Enfance 2019-2020, catégorie romans, pour Renversante
 2017 : prix Imaginales des écoliers pour Traces[réf. nécessaire]
-2017 : prix des Incorruptibles 5e/4e[37], prix des lycéens Futuriales[38] et prix RTS de Genève[39] pour  #Bleue
-2016 : prix de la page 36[40] pour U4.Yannis
-2014 : prix Sainte-Beuve des collégiens et prix Paille en Queue[41] du Salon du Livre jeunesse de l'océan Indien pour Théa pour l'éternité
+2017 : prix des Incorruptibles 5e/4e, prix des lycéens Futuriales et prix RTS de Genève pour  #Bleue
+2016 : prix de la page 36 pour U4.Yannis
+2014 : prix Sainte-Beuve des collégiens et prix Paille en Queue du Salon du Livre jeunesse de l'océan Indien pour Théa pour l'éternité
 2011 : prix du festival du livre jeunesse de Cherbourg Vanilles et Chocolats[réf. nécessaire]
 2008 : prix Livre mon ami de Nouvelle Calédonie pour La guerre des vanilles (réédité sour le titre Vanilles et Chocolats)[réf. nécessaire]</t>
         </is>
